--- a/PROJECTS MACRO/MACRO_PROCESS - Report Aging PerGL PerBranch/RPA Preference/.Source/JDE/1201_INFO.xlsx
+++ b/PROJECTS MACRO/MACRO_PROCESS - Report Aging PerGL PerBranch/RPA Preference/.Source/JDE/1201_INFO.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwinarsih\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\MACRO_PROCESS - Report Aging PerGL PerBranch\RPA Preference\.Source\JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71151CA8-7A2A-4AD2-8951-40F2AC624ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9181A878-D753-4A37-8D0D-F137B4FD2414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{B8E74FEE-C5C5-496C-9D25-8B6F67898637}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="R5641114_GG0001_1852357_PDF (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="R5641114_GG0001_1956867_PDF (1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>þÿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:47:10</t>
   </si>
   <si>
     <t>R5644111</t>
@@ -127,19 +130,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
@@ -152,99 +157,114 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -588,10 +608,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -652,7 +671,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -940,172 +959,170 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD955790-7E89-4B32-99AE-A6F940474FB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="S1" s="1">
-        <v>45601</v>
-      </c>
-      <c r="T1" s="2">
-        <v>0.89681712962962967</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+        <v>45722</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I6">
         <v>1201</v>
       </c>
       <c r="K6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>61812</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1">
         <v>44845</v>
       </c>
       <c r="P11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R11">
-        <v>752</v>
+        <v>872</v>
       </c>
       <c r="T11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>269213</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1">
         <v>44116</v>
       </c>
       <c r="P12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R12">
-        <v>1481</v>
+        <v>1601</v>
       </c>
       <c r="T12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>299857</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J13" s="1">
         <v>45469</v>
@@ -1117,99 +1134,99 @@
         <v>268.60000000000002</v>
       </c>
       <c r="P13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R13">
-        <v>128</v>
+        <v>248</v>
       </c>
       <c r="T13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>32874</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
         <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20">
         <v>6</v>
